--- a/data/sample-data.xlsx
+++ b/data/sample-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harlyjanedurbin/googledrive/research_extension/mizzou_hairshed/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harlyjanedurbin/googledrive/research_extension/GAP-tidy-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="3700" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="9020" yWindow="3700" windowWidth="20080" windowHeight="17900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5489" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5464" uniqueCount="1678">
   <si>
     <t>Cow ID</t>
   </si>
@@ -3468,9 +3468,6 @@
     <t>1.18885880217988</t>
   </si>
   <si>
-    <t>3.02104567290382</t>
-  </si>
-  <si>
     <t>6.08501276874252</t>
   </si>
   <si>
@@ -3720,9 +3717,6 @@
     <t>1.41418159370951</t>
   </si>
   <si>
-    <t>4.72258428452291</t>
-  </si>
-  <si>
     <t>5.38414462254186</t>
   </si>
   <si>
@@ -3801,9 +3795,6 @@
     <t>4.51119028375292</t>
   </si>
   <si>
-    <t>4.70837394712697</t>
-  </si>
-  <si>
     <t>6.08620809591173</t>
   </si>
   <si>
@@ -3960,9 +3951,6 @@
     <t>4.94611090379979</t>
   </si>
   <si>
-    <t>5.07385014935033</t>
-  </si>
-  <si>
     <t>1.92862081478555</t>
   </si>
   <si>
@@ -4114,9 +4102,6 @@
   </si>
   <si>
     <t>2.89732901513879</t>
-  </si>
-  <si>
-    <t>2.75347047703599</t>
   </si>
   <si>
     <t>1.05043880517727</t>
@@ -5436,7 +5421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5444,12 +5429,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -14741,22 +14726,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E554"/>
+  <dimension ref="A1:E549"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:XFD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -16087,7 +16072,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -16096,15 +16081,15 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>1146</v>
       </c>
       <c r="E82" t="s">
-        <v>1146</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -16121,7 +16106,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -16138,10 +16123,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -16155,7 +16140,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
         <v>61</v>
@@ -16172,16 +16157,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>1151</v>
       </c>
       <c r="D87" t="s">
-        <v>1151</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -16189,24 +16174,24 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
         <v>1152</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -16215,24 +16200,24 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>1153</v>
       </c>
       <c r="E89" t="s">
-        <v>1153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>1154</v>
       </c>
       <c r="D90" t="s">
-        <v>1154</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -16240,7 +16225,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -16257,7 +16242,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -16266,7 +16251,7 @@
         <v>1156</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>1157</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -16274,44 +16259,44 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D93" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D94" t="s">
-        <v>1160</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>1161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>1162</v>
@@ -16320,38 +16305,38 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>1165</v>
       </c>
       <c r="E96" t="s">
-        <v>1164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D97" t="s">
-        <v>1166</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -16359,7 +16344,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -16376,7 +16361,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -16393,7 +16378,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -16410,24 +16395,24 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
         <v>1170</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -16436,24 +16421,24 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E102" t="s">
-        <v>1172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>1173</v>
       </c>
       <c r="D103" t="s">
-        <v>1173</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -16461,41 +16446,41 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
         <v>1174</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -16512,16 +16497,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
         <v>1177</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -16529,10 +16514,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -16546,10 +16531,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -16558,46 +16543,46 @@
         <v>1179</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E110" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>1183</v>
       </c>
       <c r="D111" t="s">
-        <v>1182</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>1183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -16614,16 +16599,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
         <v>1185</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -16631,7 +16616,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -16640,86 +16625,86 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
         <v>1186</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>1187</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>1192</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>1193</v>
       </c>
       <c r="E118" t="s">
-        <v>1193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -16733,16 +16718,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>1195</v>
       </c>
       <c r="D120" t="s">
-        <v>1195</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -16750,7 +16735,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -16762,18 +16747,18 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>1197</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -16784,7 +16769,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -16793,15 +16778,15 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>1199</v>
       </c>
       <c r="E123" t="s">
-        <v>1199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -16810,15 +16795,15 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
         <v>1200</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -16827,24 +16812,24 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>1201</v>
       </c>
       <c r="E125" t="s">
-        <v>1201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>1202</v>
       </c>
       <c r="D126" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -16852,78 +16837,78 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D127" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D128" t="s">
-        <v>1206</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>1207</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
         <v>1208</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>1209</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>1209</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>1210</v>
@@ -16932,38 +16917,38 @@
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>1212</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
         <v>1213</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -16971,24 +16956,24 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
         <v>1214</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -17005,61 +16990,61 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>1216</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>1216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
         <v>1217</v>
-      </c>
-      <c r="D137" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>1218</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>1218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B139" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>1219</v>
@@ -17073,16 +17058,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C140" t="s">
         <v>1220</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>1221</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -17090,41 +17075,41 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B141" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D141" t="s">
-        <v>1222</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>1223</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>1224</v>
       </c>
       <c r="E142" t="s">
-        <v>1224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -17141,50 +17126,50 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>1226</v>
       </c>
       <c r="D144" t="s">
-        <v>1226</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>1228</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
         <v>1229</v>
-      </c>
-      <c r="D146" t="s">
-        <v>7</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -17192,7 +17177,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -17201,24 +17186,24 @@
         <v>7</v>
       </c>
       <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
         <v>1230</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B148" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>1231</v>
       </c>
       <c r="D148" t="s">
-        <v>1231</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -17226,33 +17211,33 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>1232</v>
       </c>
       <c r="E149" t="s">
-        <v>1232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
         <v>1233</v>
-      </c>
-      <c r="D150" t="s">
-        <v>7</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -17260,10 +17245,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -17277,16 +17262,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>1235</v>
       </c>
       <c r="D152" t="s">
-        <v>1235</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -17294,24 +17279,24 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
       </c>
       <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
         <v>1236</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -17328,24 +17313,24 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B155" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>1238</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>1238</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -17354,7 +17339,7 @@
         <v>1239</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>1240</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -17362,16 +17347,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>1242</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -17379,84 +17364,84 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C158" t="s">
-        <v>1241</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>1243</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>1247</v>
       </c>
       <c r="D160" t="s">
-        <v>1245</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>1246</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E161" t="s">
-        <v>1248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
         <v>1249</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
@@ -17464,16 +17449,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B163" t="s">
         <v>61</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>1250</v>
       </c>
       <c r="D163" t="s">
-        <v>1250</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -17481,10 +17466,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -17498,16 +17483,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B165" t="s">
         <v>61</v>
       </c>
       <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
         <v>1252</v>
-      </c>
-      <c r="D165" t="s">
-        <v>7</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -17515,7 +17500,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -17532,7 +17517,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B167" t="s">
         <v>61</v>
@@ -17549,7 +17534,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -17566,10 +17551,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B169" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -17583,10 +17568,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -17600,10 +17585,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -17617,24 +17602,24 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>1259</v>
       </c>
       <c r="D172" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -17643,15 +17628,15 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>1260</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B174" t="s">
         <v>61</v>
@@ -17660,7 +17645,7 @@
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -17668,24 +17653,24 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D175" t="s">
-        <v>1263</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>1264</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -17694,32 +17679,32 @@
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>1265</v>
       </c>
       <c r="E176" t="s">
-        <v>1265</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
       </c>
       <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
         <v>1266</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -17736,10 +17721,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -17753,10 +17738,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B180" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -17770,16 +17755,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
         <v>1270</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
@@ -17787,10 +17772,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="B182" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -17804,50 +17789,50 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>1272</v>
       </c>
       <c r="E183" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>1274</v>
       </c>
       <c r="D184" t="s">
-        <v>1273</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>1276</v>
       </c>
       <c r="D185" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -17855,19 +17840,19 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E186" t="s">
-        <v>1276</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -17875,30 +17860,30 @@
         <v>419</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C187" t="s">
-        <v>1277</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>1279</v>
       </c>
       <c r="E187" t="s">
-        <v>1278</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D188" t="s">
-        <v>1280</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
@@ -17906,7 +17891,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -17923,10 +17908,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -17940,16 +17925,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
         <v>1283</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -17957,7 +17942,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -17969,21 +17954,21 @@
         <v>1284</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>1286</v>
       </c>
       <c r="D193" t="s">
-        <v>1285</v>
+        <v>7</v>
       </c>
       <c r="E193" t="s">
         <v>7</v>
@@ -17991,16 +17976,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>434</v>
+        <v>125</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>1287</v>
       </c>
       <c r="D194" t="s">
-        <v>1286</v>
+        <v>7</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -18008,7 +17993,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -18017,35 +18002,35 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E195" t="s">
-        <v>1288</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
         <v>1289</v>
-      </c>
-      <c r="D196" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>125</v>
+        <v>444</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C197" t="s">
         <v>1290</v>
@@ -18059,7 +18044,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
@@ -18068,49 +18053,49 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
         <v>1291</v>
-      </c>
-      <c r="E198" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>1292</v>
       </c>
       <c r="E199" t="s">
-        <v>1292</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B200" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
         <v>1293</v>
-      </c>
-      <c r="D200" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
@@ -18119,24 +18104,24 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>1294</v>
       </c>
       <c r="E201" t="s">
-        <v>1294</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>1295</v>
       </c>
       <c r="D202" t="s">
-        <v>1295</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
         <v>7</v>
@@ -18144,33 +18129,33 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>1296</v>
       </c>
       <c r="E203" t="s">
-        <v>1296</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>1297</v>
       </c>
       <c r="D204" t="s">
-        <v>1297</v>
+        <v>7</v>
       </c>
       <c r="E204" t="s">
         <v>7</v>
@@ -18178,58 +18163,58 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
         <v>1298</v>
-      </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
         <v>1299</v>
-      </c>
-      <c r="E206" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
         <v>1300</v>
-      </c>
-      <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -18238,58 +18223,58 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>1301</v>
       </c>
       <c r="E208" t="s">
-        <v>1301</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>1302</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>1302</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>1303</v>
       </c>
       <c r="E210" t="s">
-        <v>1303</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>1304</v>
       </c>
       <c r="D211" t="s">
-        <v>1304</v>
+        <v>7</v>
       </c>
       <c r="E211" t="s">
         <v>7</v>
@@ -18297,10 +18282,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C212" t="s">
         <v>1305</v>
@@ -18314,10 +18299,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B213" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
@@ -18331,33 +18316,33 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
         <v>1307</v>
-      </c>
-      <c r="D214" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B215" t="s">
         <v>61</v>
       </c>
       <c r="C215" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
         <v>1308</v>
-      </c>
-      <c r="D215" t="s">
-        <v>7</v>
       </c>
       <c r="E215" t="s">
         <v>7</v>
@@ -18365,10 +18350,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -18382,10 +18367,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="B217" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
@@ -18399,67 +18384,67 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>1311</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>1312</v>
       </c>
       <c r="E218" t="s">
-        <v>1311</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="B219" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>1312</v>
+        <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B220" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>1313</v>
+        <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>1315</v>
       </c>
       <c r="D221" t="s">
-        <v>1314</v>
+        <v>7</v>
       </c>
       <c r="E221" t="s">
         <v>7</v>
@@ -18467,13 +18452,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>1315</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>1316</v>
@@ -18484,50 +18469,50 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>1317</v>
       </c>
       <c r="E223" t="s">
-        <v>1317</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>1318</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>1318</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
         <v>1319</v>
-      </c>
-      <c r="D225" t="s">
-        <v>7</v>
       </c>
       <c r="E225" t="s">
         <v>7</v>
@@ -18535,10 +18520,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -18552,30 +18537,30 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B227" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>1321</v>
       </c>
       <c r="D227" t="s">
-        <v>1321</v>
+        <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
@@ -18586,16 +18571,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>240</v>
+        <v>506</v>
       </c>
       <c r="B229" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>1324</v>
       </c>
       <c r="D229" t="s">
-        <v>1323</v>
+        <v>7</v>
       </c>
       <c r="E229" t="s">
         <v>7</v>
@@ -18603,7 +18588,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="B230" t="s">
         <v>61</v>
@@ -18612,7 +18597,7 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E230" t="s">
         <v>7</v>
@@ -18620,13 +18605,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B231" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>1325</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -18637,16 +18622,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>504</v>
+        <v>246</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
         <v>1327</v>
-      </c>
-      <c r="D232" t="s">
-        <v>7</v>
       </c>
       <c r="E232" t="s">
         <v>7</v>
@@ -18654,7 +18639,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
@@ -18671,10 +18656,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B234" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -18688,58 +18673,58 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>510</v>
+        <v>305</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>1330</v>
       </c>
       <c r="E235" t="s">
-        <v>1330</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>517</v>
       </c>
       <c r="B236" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
       </c>
       <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
         <v>1331</v>
-      </c>
-      <c r="E236" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>200</v>
+        <v>519</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C237" t="s">
         <v>1332</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>1333</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
@@ -18748,24 +18733,24 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>1333</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>305</v>
+        <v>525</v>
       </c>
       <c r="B239" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="E239" t="s">
         <v>7</v>
@@ -18773,41 +18758,41 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>1337</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>1335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>519</v>
+        <v>221</v>
       </c>
       <c r="B241" t="s">
         <v>61</v>
       </c>
       <c r="C241" t="s">
-        <v>1336</v>
+        <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E241" t="s">
-        <v>1338</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -18816,41 +18801,41 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>1339</v>
       </c>
       <c r="E242" t="s">
-        <v>1339</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B243" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
       </c>
       <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" t="s">
         <v>1340</v>
-      </c>
-      <c r="E243" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B244" t="s">
         <v>61</v>
       </c>
       <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
         <v>1341</v>
-      </c>
-      <c r="D244" t="s">
-        <v>7</v>
       </c>
       <c r="E244" t="s">
         <v>7</v>
@@ -18858,7 +18843,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="B245" t="s">
         <v>61</v>
@@ -18875,10 +18860,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -18887,29 +18872,29 @@
         <v>1343</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B247" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>1345</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>1344</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B248" t="s">
         <v>61</v>
@@ -18918,7 +18903,7 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E248" t="s">
         <v>7</v>
@@ -18926,16 +18911,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
       <c r="B249" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>1347</v>
       </c>
       <c r="D249" t="s">
-        <v>1346</v>
+        <v>7</v>
       </c>
       <c r="E249" t="s">
         <v>7</v>
@@ -18943,41 +18928,41 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="B250" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>1348</v>
       </c>
       <c r="D250" t="s">
-        <v>1347</v>
+        <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>1348</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" t="s">
         <v>1349</v>
-      </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="E251" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B252" t="s">
         <v>61</v>
@@ -18994,16 +18979,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
         <v>1351</v>
-      </c>
-      <c r="D253" t="s">
-        <v>7</v>
       </c>
       <c r="E253" t="s">
         <v>7</v>
@@ -19011,16 +18996,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C254" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" t="s">
         <v>1352</v>
-      </c>
-      <c r="D254" t="s">
-        <v>7</v>
       </c>
       <c r="E254" t="s">
         <v>7</v>
@@ -19028,7 +19013,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -19045,10 +19030,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -19062,16 +19047,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>1355</v>
       </c>
       <c r="D257" t="s">
-        <v>1355</v>
+        <v>7</v>
       </c>
       <c r="E257" t="s">
         <v>7</v>
@@ -19079,10 +19064,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -19096,27 +19081,27 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>1357</v>
       </c>
       <c r="E259" t="s">
-        <v>1357</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>557</v>
+        <v>343</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -19130,16 +19115,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C261" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" t="s">
         <v>1359</v>
-      </c>
-      <c r="D261" t="s">
-        <v>7</v>
       </c>
       <c r="E261" t="s">
         <v>7</v>
@@ -19147,16 +19132,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>1360</v>
       </c>
       <c r="D262" t="s">
-        <v>1360</v>
+        <v>7</v>
       </c>
       <c r="E262" t="s">
         <v>7</v>
@@ -19164,7 +19149,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B263" t="s">
         <v>61</v>
@@ -19181,16 +19166,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B264" t="s">
         <v>126</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>1362</v>
       </c>
       <c r="D264" t="s">
-        <v>1362</v>
+        <v>7</v>
       </c>
       <c r="E264" t="s">
         <v>7</v>
@@ -19198,7 +19183,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>343</v>
+        <v>576</v>
       </c>
       <c r="B265" t="s">
         <v>126</v>
@@ -19215,16 +19200,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B266" t="s">
         <v>126</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>1364</v>
       </c>
       <c r="D266" t="s">
-        <v>1364</v>
+        <v>7</v>
       </c>
       <c r="E266" t="s">
         <v>7</v>
@@ -19232,33 +19217,33 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>570</v>
+        <v>149</v>
       </c>
       <c r="B267" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
         <v>1365</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B268" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>1366</v>
       </c>
       <c r="D268" t="s">
-        <v>1366</v>
+        <v>7</v>
       </c>
       <c r="E268" t="s">
         <v>7</v>
@@ -19266,27 +19251,27 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B269" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
         <v>1367</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B270" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -19300,16 +19285,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B271" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
         <v>1369</v>
-      </c>
-      <c r="D271" t="s">
-        <v>7</v>
       </c>
       <c r="E271" t="s">
         <v>7</v>
@@ -19317,27 +19302,27 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>149</v>
+        <v>589</v>
       </c>
       <c r="B272" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>1370</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
       </c>
       <c r="E272" t="s">
-        <v>1370</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C273" t="s">
         <v>1371</v>
@@ -19351,44 +19336,44 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="B274" t="s">
         <v>61</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>1372</v>
       </c>
       <c r="D274" t="s">
         <v>7</v>
       </c>
       <c r="E274" t="s">
-        <v>1372</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>585</v>
+        <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
       </c>
       <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="s">
         <v>1373</v>
-      </c>
-      <c r="E275" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -19402,10 +19387,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>589</v>
+        <v>238</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C277" t="s">
         <v>1375</v>
@@ -19419,33 +19404,33 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B278" t="s">
         <v>61</v>
       </c>
       <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="s">
         <v>1376</v>
       </c>
-      <c r="D278" t="s">
-        <v>7</v>
-      </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="B279" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>1377</v>
+        <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>1378</v>
       </c>
       <c r="E279" t="s">
         <v>7</v>
@@ -19453,24 +19438,24 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>1379</v>
       </c>
       <c r="E280" t="s">
-        <v>1378</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="B281" t="s">
         <v>126</v>
@@ -19479,7 +19464,7 @@
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E281" t="s">
         <v>7</v>
@@ -19487,13 +19472,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>238</v>
+        <v>605</v>
       </c>
       <c r="B282" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D282" t="s">
         <v>7</v>
@@ -19504,33 +19489,33 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>597</v>
+        <v>196</v>
       </c>
       <c r="B283" t="s">
         <v>61</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>1382</v>
       </c>
       <c r="D283" t="s">
-        <v>1381</v>
+        <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>1384</v>
       </c>
       <c r="D284" t="s">
-        <v>1383</v>
+        <v>7</v>
       </c>
       <c r="E284" t="s">
         <v>7</v>
@@ -19538,7 +19523,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>611</v>
       </c>
       <c r="B285" t="s">
         <v>126</v>
@@ -19547,7 +19532,7 @@
         <v>7</v>
       </c>
       <c r="D285" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E285" t="s">
         <v>7</v>
@@ -19555,16 +19540,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B286" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E286" t="s">
         <v>7</v>
@@ -19572,47 +19557,47 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C287" t="s">
-        <v>1386</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>1387</v>
       </c>
       <c r="E287" t="s">
-        <v>7</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>196</v>
+        <v>618</v>
       </c>
       <c r="B288" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>1387</v>
+        <v>7</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>1389</v>
       </c>
       <c r="E288" t="s">
-        <v>1388</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B289" t="s">
         <v>61</v>
       </c>
       <c r="C289" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D289" t="s">
         <v>7</v>
@@ -19623,16 +19608,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="B290" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>1391</v>
       </c>
       <c r="D290" t="s">
-        <v>1390</v>
+        <v>7</v>
       </c>
       <c r="E290" t="s">
         <v>7</v>
@@ -19640,41 +19625,41 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B291" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
       </c>
       <c r="D291" t="s">
-        <v>1391</v>
+        <v>7</v>
       </c>
       <c r="E291" t="s">
-        <v>7</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B292" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>1393</v>
       </c>
       <c r="D292" t="s">
-        <v>1392</v>
+        <v>7</v>
       </c>
       <c r="E292" t="s">
-        <v>1393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -19691,10 +19676,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B294" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
         <v>1395</v>
@@ -19708,16 +19693,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>622</v>
+        <v>341</v>
       </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C295" t="s">
         <v>1396</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>1397</v>
       </c>
       <c r="E295" t="s">
         <v>7</v>
@@ -19725,41 +19710,41 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C296" t="s">
-        <v>7</v>
+        <v>1398</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>1399</v>
       </c>
       <c r="E296" t="s">
-        <v>1397</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="B297" t="s">
         <v>61</v>
       </c>
       <c r="C297" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D297" t="s">
         <v>7</v>
       </c>
       <c r="E297" t="s">
-        <v>7</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
@@ -19768,58 +19753,58 @@
         <v>7</v>
       </c>
       <c r="D298" t="s">
-        <v>1399</v>
+        <v>7</v>
       </c>
       <c r="E298" t="s">
-        <v>7</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C299" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="D299" t="s">
         <v>7</v>
       </c>
       <c r="E299" t="s">
-        <v>7</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B300" t="s">
         <v>126</v>
       </c>
       <c r="C300" t="s">
-        <v>1401</v>
+        <v>7</v>
       </c>
       <c r="D300" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="E300" t="s">
-        <v>7</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="B301" t="s">
         <v>126</v>
       </c>
       <c r="C301" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="D301" t="s">
-        <v>1404</v>
+        <v>7</v>
       </c>
       <c r="E301" t="s">
         <v>7</v>
@@ -19827,58 +19812,58 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>603</v>
+        <v>647</v>
       </c>
       <c r="B302" t="s">
         <v>61</v>
       </c>
       <c r="C302" t="s">
-        <v>1405</v>
+        <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>1408</v>
       </c>
       <c r="E302" t="s">
-        <v>1406</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>1409</v>
       </c>
       <c r="E303" t="s">
-        <v>1407</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B304" t="s">
         <v>61</v>
       </c>
       <c r="C304" t="s">
-        <v>1408</v>
+        <v>7</v>
       </c>
       <c r="D304" t="s">
         <v>7</v>
       </c>
       <c r="E304" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>308</v>
+        <v>653</v>
       </c>
       <c r="B305" t="s">
         <v>126</v>
@@ -19887,32 +19872,32 @@
         <v>7</v>
       </c>
       <c r="D305" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E305" t="s">
-        <v>1411</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>645</v>
+        <v>194</v>
       </c>
       <c r="B306" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C306" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
         <v>1412</v>
-      </c>
-      <c r="D306" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B307" t="s">
         <v>61</v>
@@ -19929,7 +19914,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>649</v>
+        <v>272</v>
       </c>
       <c r="B308" t="s">
         <v>126</v>
@@ -19946,33 +19931,33 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B309" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>1415</v>
       </c>
       <c r="D309" t="s">
         <v>7</v>
       </c>
       <c r="E309" t="s">
-        <v>1415</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B310" t="s">
         <v>126</v>
       </c>
       <c r="C310" t="s">
-        <v>7</v>
+        <v>1416</v>
       </c>
       <c r="D310" t="s">
-        <v>1416</v>
+        <v>7</v>
       </c>
       <c r="E310" t="s">
         <v>7</v>
@@ -19980,7 +19965,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>194</v>
+        <v>663</v>
       </c>
       <c r="B311" t="s">
         <v>61</v>
@@ -19989,35 +19974,35 @@
         <v>7</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>1417</v>
       </c>
       <c r="E311" t="s">
-        <v>1417</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B312" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
       </c>
       <c r="D312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" t="s">
         <v>1418</v>
-      </c>
-      <c r="E312" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="B313" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -20026,21 +20011,21 @@
         <v>1419</v>
       </c>
       <c r="E313" t="s">
-        <v>7</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>659</v>
+        <v>319</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C314" t="s">
-        <v>1420</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>7</v>
+        <v>1421</v>
       </c>
       <c r="E314" t="s">
         <v>7</v>
@@ -20048,13 +20033,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>661</v>
+        <v>576</v>
       </c>
       <c r="B315" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D315" t="s">
         <v>7</v>
@@ -20065,7 +20050,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B316" t="s">
         <v>61</v>
@@ -20074,18 +20059,18 @@
         <v>7</v>
       </c>
       <c r="D316" t="s">
-        <v>1422</v>
+        <v>7</v>
       </c>
       <c r="E316" t="s">
-        <v>7</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -20094,21 +20079,21 @@
         <v>7</v>
       </c>
       <c r="E317" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>1424</v>
+        <v>7</v>
       </c>
       <c r="E318" t="s">
         <v>1425</v>
@@ -20116,61 +20101,61 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>676</v>
       </c>
       <c r="B319" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
       </c>
       <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" t="s">
         <v>1426</v>
-      </c>
-      <c r="E319" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>576</v>
+        <v>678</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C320" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" t="s">
         <v>1427</v>
-      </c>
-      <c r="D320" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>671</v>
+        <v>279</v>
       </c>
       <c r="B321" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>1428</v>
       </c>
       <c r="E321" t="s">
-        <v>1428</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B322" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -20184,7 +20169,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>683</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -20201,27 +20186,27 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B324" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C324" t="s">
-        <v>7</v>
+        <v>1431</v>
       </c>
       <c r="D324" t="s">
         <v>7</v>
       </c>
       <c r="E324" t="s">
-        <v>1431</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B325" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -20235,7 +20220,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="B326" t="s">
         <v>126</v>
@@ -20244,69 +20229,69 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326" t="s">
         <v>1433</v>
-      </c>
-      <c r="E326" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
       <c r="C327" t="s">
-        <v>7</v>
+        <v>1434</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
       </c>
       <c r="E327" t="s">
-        <v>1434</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C328" t="s">
-        <v>7</v>
+        <v>1435</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
       </c>
       <c r="E328" t="s">
-        <v>1435</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B329" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C329" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" t="s">
         <v>1436</v>
-      </c>
-      <c r="D329" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>687</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -20320,10 +20305,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>563</v>
       </c>
       <c r="B331" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -20337,10 +20322,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C332" t="s">
         <v>1439</v>
@@ -20354,24 +20339,24 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B333" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C333" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" t="s">
         <v>1440</v>
-      </c>
-      <c r="D333" t="s">
-        <v>7</v>
-      </c>
-      <c r="E333" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B334" t="s">
         <v>61</v>
@@ -20388,50 +20373,50 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>14</v>
+        <v>704</v>
       </c>
       <c r="B335" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
       </c>
       <c r="D335" t="s">
-        <v>7</v>
+        <v>1442</v>
       </c>
       <c r="E335" t="s">
-        <v>1442</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
       </c>
       <c r="D336" t="s">
-        <v>7</v>
+        <v>1443</v>
       </c>
       <c r="E336" t="s">
-        <v>1443</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B337" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C337" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" t="s">
         <v>1444</v>
-      </c>
-      <c r="D337" t="s">
-        <v>7</v>
       </c>
       <c r="E337" t="s">
         <v>7</v>
@@ -20439,50 +20424,50 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>700</v>
+        <v>204</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>1445</v>
       </c>
       <c r="E338" t="s">
-        <v>1445</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B339" t="s">
         <v>61</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>1446</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
       </c>
       <c r="E339" t="s">
-        <v>1446</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>704</v>
+        <v>611</v>
       </c>
       <c r="B340" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C340" t="s">
-        <v>7</v>
+        <v>1447</v>
       </c>
       <c r="D340" t="s">
-        <v>1447</v>
+        <v>7</v>
       </c>
       <c r="E340" t="s">
         <v>7</v>
@@ -20490,7 +20475,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>673</v>
+        <v>444</v>
       </c>
       <c r="B341" t="s">
         <v>61</v>
@@ -20507,10 +20492,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B342" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -20519,12 +20504,12 @@
         <v>1449</v>
       </c>
       <c r="E342" t="s">
-        <v>7</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>204</v>
+        <v>717</v>
       </c>
       <c r="B343" t="s">
         <v>61</v>
@@ -20533,7 +20518,7 @@
         <v>7</v>
       </c>
       <c r="D343" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E343" t="s">
         <v>7</v>
@@ -20541,13 +20526,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B344" t="s">
         <v>61</v>
       </c>
       <c r="C344" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -20558,58 +20543,58 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>611</v>
+        <v>720</v>
       </c>
       <c r="B345" t="s">
         <v>61</v>
       </c>
       <c r="C345" t="s">
-        <v>1452</v>
+        <v>7</v>
       </c>
       <c r="D345" t="s">
         <v>7</v>
       </c>
       <c r="E345" t="s">
-        <v>7</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="B346" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
       </c>
       <c r="D346" t="s">
-        <v>1453</v>
+        <v>7</v>
       </c>
       <c r="E346" t="s">
-        <v>7</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B347" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E347" t="s">
-        <v>1455</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B348" t="s">
         <v>61</v>
@@ -20626,7 +20611,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="B349" t="s">
         <v>61</v>
@@ -20643,10 +20628,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B350" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -20660,10 +20645,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>485</v>
+        <v>731</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
@@ -20677,16 +20662,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B352" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C352" t="s">
-        <v>7</v>
+        <v>1460</v>
       </c>
       <c r="D352" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E352" t="s">
         <v>7</v>
@@ -20694,33 +20679,33 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B353" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
       </c>
       <c r="D353" t="s">
-        <v>1461</v>
+        <v>7</v>
       </c>
       <c r="E353" t="s">
-        <v>7</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B354" t="s">
         <v>61</v>
       </c>
       <c r="C354" t="s">
-        <v>1462</v>
+        <v>7</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>1463</v>
       </c>
       <c r="E354" t="s">
         <v>7</v>
@@ -20728,10 +20713,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -20740,15 +20725,15 @@
         <v>7</v>
       </c>
       <c r="E355" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="B356" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C356" t="s">
         <v>7</v>
@@ -20757,21 +20742,21 @@
         <v>7</v>
       </c>
       <c r="E356" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="B357" t="s">
         <v>61</v>
       </c>
       <c r="C357" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D357" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E357" t="s">
         <v>7</v>
@@ -20779,58 +20764,58 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>1468</v>
       </c>
       <c r="D358" t="s">
         <v>7</v>
       </c>
       <c r="E358" t="s">
-        <v>1467</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>737</v>
+        <v>310</v>
       </c>
       <c r="B359" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C359" t="s">
-        <v>7</v>
+        <v>1469</v>
       </c>
       <c r="D359" t="s">
-        <v>1468</v>
+        <v>7</v>
       </c>
       <c r="E359" t="s">
-        <v>7</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
       <c r="B360" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C360" t="s">
-        <v>7</v>
+        <v>1471</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
       </c>
       <c r="E360" t="s">
-        <v>1469</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B361" t="s">
         <v>61</v>
@@ -20842,21 +20827,21 @@
         <v>7</v>
       </c>
       <c r="E361" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B362" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C362" t="s">
-        <v>1471</v>
+        <v>7</v>
       </c>
       <c r="D362" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="E362" t="s">
         <v>7</v>
@@ -20864,16 +20849,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B363" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C363" t="s">
-        <v>1473</v>
+        <v>7</v>
       </c>
       <c r="D363" t="s">
-        <v>7</v>
+        <v>1474</v>
       </c>
       <c r="E363" t="s">
         <v>7</v>
@@ -20881,44 +20866,44 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>310</v>
+        <v>756</v>
       </c>
       <c r="B364" t="s">
         <v>126</v>
       </c>
       <c r="C364" t="s">
-        <v>1474</v>
+        <v>7</v>
       </c>
       <c r="D364" t="s">
-        <v>7</v>
+        <v>1475</v>
       </c>
       <c r="E364" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>647</v>
+        <v>759</v>
       </c>
       <c r="B365" t="s">
         <v>126</v>
       </c>
       <c r="C365" t="s">
-        <v>1476</v>
+        <v>7</v>
       </c>
       <c r="D365" t="s">
         <v>7</v>
       </c>
       <c r="E365" t="s">
-        <v>7</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B366" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -20927,29 +20912,29 @@
         <v>7</v>
       </c>
       <c r="E366" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>753</v>
+        <v>628</v>
       </c>
       <c r="B367" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
       </c>
       <c r="D367" t="s">
-        <v>1478</v>
+        <v>7</v>
       </c>
       <c r="E367" t="s">
-        <v>7</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B368" t="s">
         <v>126</v>
@@ -20958,7 +20943,7 @@
         <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E368" t="s">
         <v>7</v>
@@ -20966,75 +20951,75 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B369" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
       </c>
       <c r="D369" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E369" t="s">
-        <v>1481</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B370" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
       </c>
       <c r="D370" t="s">
-        <v>7</v>
+        <v>1482</v>
       </c>
       <c r="E370" t="s">
-        <v>1482</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>761</v>
+        <v>101</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C371" t="s">
-        <v>7</v>
+        <v>1483</v>
       </c>
       <c r="D371" t="s">
         <v>7</v>
       </c>
       <c r="E371" t="s">
-        <v>1483</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>628</v>
+        <v>770</v>
       </c>
       <c r="B372" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>7</v>
+        <v>1484</v>
       </c>
       <c r="D372" t="s">
         <v>7</v>
       </c>
       <c r="E372" t="s">
-        <v>1484</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>741</v>
+        <v>671</v>
       </c>
       <c r="B373" t="s">
         <v>126</v>
@@ -21051,7 +21036,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B374" t="s">
         <v>61</v>
@@ -21060,24 +21045,24 @@
         <v>7</v>
       </c>
       <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
         <v>1486</v>
-      </c>
-      <c r="E374" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B375" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>7</v>
+        <v>1487</v>
       </c>
       <c r="D375" t="s">
-        <v>1487</v>
+        <v>7</v>
       </c>
       <c r="E375" t="s">
         <v>7</v>
@@ -21085,16 +21070,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>101</v>
+        <v>543</v>
       </c>
       <c r="B376" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C376" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" t="s">
         <v>1488</v>
-      </c>
-      <c r="D376" t="s">
-        <v>7</v>
       </c>
       <c r="E376" t="s">
         <v>7</v>
@@ -21102,16 +21087,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C377" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" t="s">
         <v>1489</v>
-      </c>
-      <c r="D377" t="s">
-        <v>7</v>
       </c>
       <c r="E377" t="s">
         <v>7</v>
@@ -21119,16 +21104,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>671</v>
+        <v>780</v>
       </c>
       <c r="B378" t="s">
         <v>126</v>
       </c>
       <c r="C378" t="s">
-        <v>7</v>
+        <v>1490</v>
       </c>
       <c r="D378" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="E378" t="s">
         <v>7</v>
@@ -21136,30 +21121,30 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>773</v>
+        <v>353</v>
       </c>
       <c r="B379" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
       </c>
       <c r="D379" t="s">
-        <v>7</v>
+        <v>1492</v>
       </c>
       <c r="E379" t="s">
-        <v>1491</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>775</v>
+        <v>171</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C380" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D380" t="s">
         <v>7</v>
@@ -21170,16 +21155,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>543</v>
+        <v>785</v>
       </c>
       <c r="B381" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>1494</v>
       </c>
       <c r="D381" t="s">
-        <v>1493</v>
+        <v>7</v>
       </c>
       <c r="E381" t="s">
         <v>7</v>
@@ -21187,30 +21172,30 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="B382" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
       </c>
       <c r="D382" t="s">
-        <v>1494</v>
+        <v>7</v>
       </c>
       <c r="E382" t="s">
-        <v>7</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="B383" t="s">
         <v>126</v>
       </c>
       <c r="C383" t="s">
-        <v>1495</v>
+        <v>7</v>
       </c>
       <c r="D383" t="s">
         <v>1496</v>
@@ -21221,16 +21206,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>353</v>
+        <v>790</v>
       </c>
       <c r="B384" t="s">
         <v>126</v>
       </c>
       <c r="C384" t="s">
-        <v>7</v>
+        <v>1497</v>
       </c>
       <c r="D384" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E384" t="s">
         <v>7</v>
@@ -21238,13 +21223,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>171</v>
+        <v>489</v>
       </c>
       <c r="B385" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C385" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
@@ -21255,16 +21240,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>785</v>
+        <v>449</v>
       </c>
       <c r="B386" t="s">
         <v>126</v>
       </c>
       <c r="C386" t="s">
-        <v>1499</v>
+        <v>7</v>
       </c>
       <c r="D386" t="s">
-        <v>7</v>
+        <v>1500</v>
       </c>
       <c r="E386" t="s">
         <v>7</v>
@@ -21272,33 +21257,33 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>472</v>
+        <v>795</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C387" t="s">
-        <v>7</v>
+        <v>1501</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
       </c>
       <c r="E387" t="s">
-        <v>1500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>788</v>
+        <v>21</v>
       </c>
       <c r="B388" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C388" t="s">
-        <v>7</v>
+        <v>1502</v>
       </c>
       <c r="D388" t="s">
-        <v>1501</v>
+        <v>7</v>
       </c>
       <c r="E388" t="s">
         <v>7</v>
@@ -21306,13 +21291,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="B389" t="s">
         <v>126</v>
       </c>
       <c r="C389" t="s">
-        <v>1502</v>
+        <v>7</v>
       </c>
       <c r="D389" t="s">
         <v>1503</v>
@@ -21323,7 +21308,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="B390" t="s">
         <v>61</v>
@@ -21340,10 +21325,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>449</v>
+        <v>266</v>
       </c>
       <c r="B391" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -21357,50 +21342,50 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B392" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C392" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
         <v>1506</v>
-      </c>
-      <c r="D392" t="s">
-        <v>7</v>
-      </c>
-      <c r="E392" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>21</v>
+        <v>804</v>
       </c>
       <c r="B393" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C393" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
         <v>1507</v>
-      </c>
-      <c r="D393" t="s">
-        <v>7</v>
-      </c>
-      <c r="E393" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B394" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C394" t="s">
-        <v>7</v>
+        <v>1508</v>
       </c>
       <c r="D394" t="s">
-        <v>1508</v>
+        <v>7</v>
       </c>
       <c r="E394" t="s">
         <v>7</v>
@@ -21408,10 +21393,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>425</v>
+        <v>808</v>
       </c>
       <c r="B395" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
         <v>1509</v>
@@ -21425,10 +21410,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>266</v>
+        <v>810</v>
       </c>
       <c r="B396" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -21442,10 +21427,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>802</v>
+        <v>87</v>
       </c>
       <c r="B397" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -21459,10 +21444,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="B398" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -21476,16 +21461,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>806</v>
+        <v>202</v>
       </c>
       <c r="B399" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C399" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
         <v>1513</v>
-      </c>
-      <c r="D399" t="s">
-        <v>7</v>
       </c>
       <c r="E399" t="s">
         <v>7</v>
@@ -21493,24 +21478,24 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>808</v>
+        <v>360</v>
       </c>
       <c r="B400" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C400" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+      <c r="E400" t="s">
         <v>1514</v>
-      </c>
-      <c r="D400" t="s">
-        <v>7</v>
-      </c>
-      <c r="E400" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>810</v>
+        <v>71</v>
       </c>
       <c r="B401" t="s">
         <v>126</v>
@@ -21527,7 +21512,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>87</v>
+        <v>808</v>
       </c>
       <c r="B402" t="s">
         <v>126</v>
@@ -21544,7 +21529,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B403" t="s">
         <v>61</v>
@@ -21553,15 +21538,15 @@
         <v>7</v>
       </c>
       <c r="D403" t="s">
-        <v>7</v>
+        <v>1517</v>
       </c>
       <c r="E403" t="s">
-        <v>1517</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>126</v>
@@ -21570,15 +21555,15 @@
         <v>7</v>
       </c>
       <c r="D404" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" t="s">
         <v>1518</v>
-      </c>
-      <c r="E404" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>360</v>
+        <v>822</v>
       </c>
       <c r="B405" t="s">
         <v>126</v>
@@ -21595,7 +21580,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="B406" t="s">
         <v>126</v>
@@ -21612,27 +21597,27 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>808</v>
+        <v>14</v>
       </c>
       <c r="B407" t="s">
         <v>126</v>
       </c>
       <c r="C407" t="s">
-        <v>7</v>
+        <v>1521</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
       </c>
       <c r="E407" t="s">
-        <v>1521</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>819</v>
+        <v>510</v>
       </c>
       <c r="B408" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C408" t="s">
         <v>7</v>
@@ -21646,24 +21631,24 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B409" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C409" t="s">
-        <v>7</v>
+        <v>1523</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
       </c>
       <c r="E409" t="s">
-        <v>1523</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>822</v>
+        <v>729</v>
       </c>
       <c r="B410" t="s">
         <v>126</v>
@@ -21672,35 +21657,35 @@
         <v>7</v>
       </c>
       <c r="D410" t="s">
-        <v>7</v>
+        <v>1524</v>
       </c>
       <c r="E410" t="s">
-        <v>1524</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="B411" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C411" t="s">
         <v>7</v>
       </c>
       <c r="D411" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" t="s">
         <v>1525</v>
-      </c>
-      <c r="E411" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>14</v>
+        <v>830</v>
       </c>
       <c r="B412" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C412" t="s">
         <v>1526</v>
@@ -21714,7 +21699,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B413" t="s">
         <v>126</v>
@@ -21723,24 +21708,24 @@
         <v>7</v>
       </c>
       <c r="D413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" t="s">
         <v>1527</v>
-      </c>
-      <c r="E413" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="B414" t="s">
         <v>61</v>
       </c>
       <c r="C414" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" t="s">
         <v>1528</v>
-      </c>
-      <c r="D414" t="s">
-        <v>7</v>
       </c>
       <c r="E414" t="s">
         <v>7</v>
@@ -21748,47 +21733,47 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>729</v>
+        <v>834</v>
       </c>
       <c r="B415" t="s">
         <v>126</v>
       </c>
       <c r="C415" t="s">
-        <v>7</v>
+        <v>1529</v>
       </c>
       <c r="D415" t="s">
-        <v>1529</v>
+        <v>7</v>
       </c>
       <c r="E415" t="s">
-        <v>7</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="B416" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C416" t="s">
         <v>7</v>
       </c>
       <c r="D416" t="s">
-        <v>7</v>
+        <v>1531</v>
       </c>
       <c r="E416" t="s">
-        <v>1530</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B417" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C417" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -21799,58 +21784,58 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="B418" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C418" t="s">
         <v>7</v>
       </c>
       <c r="D418" t="s">
-        <v>7</v>
+        <v>1533</v>
       </c>
       <c r="E418" t="s">
-        <v>1532</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>428</v>
+        <v>806</v>
       </c>
       <c r="B419" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C419" t="s">
         <v>7</v>
       </c>
       <c r="D419" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E419" t="s">
-        <v>7</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="B420" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C420" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D420" t="s">
         <v>7</v>
       </c>
       <c r="E420" t="s">
-        <v>1535</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B421" t="s">
         <v>126</v>
@@ -21859,24 +21844,24 @@
         <v>7</v>
       </c>
       <c r="D421" t="s">
-        <v>1536</v>
+        <v>7</v>
       </c>
       <c r="E421" t="s">
-        <v>7</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="B422" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C422" t="s">
-        <v>1537</v>
+        <v>7</v>
       </c>
       <c r="D422" t="s">
-        <v>7</v>
+        <v>1538</v>
       </c>
       <c r="E422" t="s">
         <v>7</v>
@@ -21884,16 +21869,16 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B423" t="s">
         <v>61</v>
       </c>
       <c r="C423" t="s">
-        <v>7</v>
+        <v>1539</v>
       </c>
       <c r="D423" t="s">
-        <v>1538</v>
+        <v>7</v>
       </c>
       <c r="E423" t="s">
         <v>7</v>
@@ -21901,33 +21886,33 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>806</v>
+        <v>851</v>
       </c>
       <c r="B424" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C424" t="s">
         <v>7</v>
       </c>
       <c r="D424" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E424" t="s">
-        <v>1540</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B425" t="s">
         <v>61</v>
       </c>
       <c r="C425" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" t="s">
         <v>1541</v>
-      </c>
-      <c r="D425" t="s">
-        <v>7</v>
       </c>
       <c r="E425" t="s">
         <v>7</v>
@@ -21935,24 +21920,24 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>147</v>
+        <v>855</v>
       </c>
       <c r="B426" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C426" t="s">
-        <v>7</v>
+        <v>1542</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
       </c>
       <c r="E426" t="s">
-        <v>1542</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>847</v>
+        <v>186</v>
       </c>
       <c r="B427" t="s">
         <v>61</v>
@@ -21961,32 +21946,32 @@
         <v>7</v>
       </c>
       <c r="D427" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" t="s">
         <v>1543</v>
-      </c>
-      <c r="E427" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="B428" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C428" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" t="s">
         <v>1544</v>
-      </c>
-      <c r="D428" t="s">
-        <v>7</v>
-      </c>
-      <c r="E428" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="B429" t="s">
         <v>61</v>
@@ -21995,41 +21980,41 @@
         <v>7</v>
       </c>
       <c r="D429" t="s">
+        <v>7</v>
+      </c>
+      <c r="E429" t="s">
         <v>1545</v>
-      </c>
-      <c r="E429" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>853</v>
+        <v>376</v>
       </c>
       <c r="B430" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C430" t="s">
         <v>7</v>
       </c>
       <c r="D430" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" t="s">
         <v>1546</v>
-      </c>
-      <c r="E430" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="B431" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C431" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" t="s">
         <v>1547</v>
-      </c>
-      <c r="D431" t="s">
-        <v>7</v>
       </c>
       <c r="E431" t="s">
         <v>7</v>
@@ -22037,7 +22022,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>186</v>
+        <v>788</v>
       </c>
       <c r="B432" t="s">
         <v>61</v>
@@ -22054,27 +22039,27 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>858</v>
+        <v>19</v>
       </c>
       <c r="B433" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C433" t="s">
-        <v>7</v>
+        <v>1549</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
       </c>
       <c r="E433" t="s">
-        <v>1549</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="B434" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C434" t="s">
         <v>7</v>
@@ -22088,7 +22073,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>376</v>
+        <v>869</v>
       </c>
       <c r="B435" t="s">
         <v>126</v>
@@ -22105,7 +22090,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="B436" t="s">
         <v>126</v>
@@ -22114,15 +22099,15 @@
         <v>7</v>
       </c>
       <c r="D436" t="s">
+        <v>7</v>
+      </c>
+      <c r="E436" t="s">
         <v>1552</v>
-      </c>
-      <c r="E436" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>788</v>
+        <v>545</v>
       </c>
       <c r="B437" t="s">
         <v>61</v>
@@ -22131,24 +22116,24 @@
         <v>7</v>
       </c>
       <c r="D437" t="s">
-        <v>7</v>
+        <v>1553</v>
       </c>
       <c r="E437" t="s">
-        <v>1553</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="B438" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C438" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" t="s">
         <v>1554</v>
-      </c>
-      <c r="D438" t="s">
-        <v>7</v>
       </c>
       <c r="E438" t="s">
         <v>7</v>
@@ -22156,7 +22141,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B439" t="s">
         <v>126</v>
@@ -22165,66 +22150,66 @@
         <v>7</v>
       </c>
       <c r="D439" t="s">
-        <v>7</v>
+        <v>1555</v>
       </c>
       <c r="E439" t="s">
-        <v>1555</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>869</v>
+        <v>363</v>
       </c>
       <c r="B440" t="s">
         <v>126</v>
       </c>
       <c r="C440" t="s">
-        <v>7</v>
+        <v>1556</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
       </c>
       <c r="E440" t="s">
-        <v>1556</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B441" t="s">
         <v>126</v>
       </c>
       <c r="C441" t="s">
-        <v>7</v>
+        <v>1557</v>
       </c>
       <c r="D441" t="s">
-        <v>7</v>
+        <v>1558</v>
       </c>
       <c r="E441" t="s">
-        <v>1557</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>545</v>
+        <v>77</v>
       </c>
       <c r="B442" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C442" t="s">
-        <v>7</v>
+        <v>1559</v>
       </c>
       <c r="D442" t="s">
-        <v>1558</v>
+        <v>7</v>
       </c>
       <c r="E442" t="s">
-        <v>7</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>130</v>
+        <v>883</v>
       </c>
       <c r="B443" t="s">
         <v>126</v>
@@ -22233,7 +22218,7 @@
         <v>7</v>
       </c>
       <c r="D443" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="E443" t="s">
         <v>7</v>
@@ -22241,30 +22226,30 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>875</v>
+        <v>67</v>
       </c>
       <c r="B444" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C444" t="s">
         <v>7</v>
       </c>
       <c r="D444" t="s">
-        <v>1560</v>
+        <v>7</v>
       </c>
       <c r="E444" t="s">
-        <v>7</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>363</v>
+        <v>778</v>
       </c>
       <c r="B445" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C445" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D445" t="s">
         <v>7</v>
@@ -22275,30 +22260,30 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>878</v>
+        <v>161</v>
       </c>
       <c r="B446" t="s">
         <v>126</v>
       </c>
       <c r="C446" t="s">
-        <v>1562</v>
+        <v>7</v>
       </c>
       <c r="D446" t="s">
-        <v>1563</v>
+        <v>7</v>
       </c>
       <c r="E446" t="s">
-        <v>7</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>77</v>
+        <v>888</v>
       </c>
       <c r="B447" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C447" t="s">
-        <v>1564</v>
+        <v>7</v>
       </c>
       <c r="D447" t="s">
         <v>7</v>
@@ -22309,7 +22294,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>883</v>
+        <v>622</v>
       </c>
       <c r="B448" t="s">
         <v>126</v>
@@ -22326,27 +22311,27 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>67</v>
+        <v>729</v>
       </c>
       <c r="B449" t="s">
         <v>61</v>
       </c>
       <c r="C449" t="s">
-        <v>7</v>
+        <v>1567</v>
       </c>
       <c r="D449" t="s">
         <v>7</v>
       </c>
       <c r="E449" t="s">
-        <v>1567</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>778</v>
+        <v>337</v>
       </c>
       <c r="B450" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C450" t="s">
         <v>1568</v>
@@ -22360,7 +22345,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>161</v>
+        <v>690</v>
       </c>
       <c r="B451" t="s">
         <v>126</v>
@@ -22369,15 +22354,15 @@
         <v>7</v>
       </c>
       <c r="D451" t="s">
-        <v>7</v>
+        <v>1569</v>
       </c>
       <c r="E451" t="s">
-        <v>1569</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>888</v>
+        <v>501</v>
       </c>
       <c r="B452" t="s">
         <v>61</v>
@@ -22386,24 +22371,24 @@
         <v>7</v>
       </c>
       <c r="D452" t="s">
-        <v>7</v>
+        <v>1570</v>
       </c>
       <c r="E452" t="s">
-        <v>1570</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>622</v>
+        <v>895</v>
       </c>
       <c r="B453" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C453" t="s">
-        <v>7</v>
+        <v>1571</v>
       </c>
       <c r="D453" t="s">
-        <v>1571</v>
+        <v>7</v>
       </c>
       <c r="E453" t="s">
         <v>7</v>
@@ -22411,10 +22396,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>729</v>
+        <v>52</v>
       </c>
       <c r="B454" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C454" t="s">
         <v>1572</v>
@@ -22428,33 +22413,33 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>337</v>
+        <v>898</v>
       </c>
       <c r="B455" t="s">
         <v>126</v>
       </c>
       <c r="C455" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
         <v>1573</v>
       </c>
-      <c r="D455" t="s">
-        <v>7</v>
-      </c>
       <c r="E455" t="s">
-        <v>7</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B456" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C456" t="s">
-        <v>7</v>
+        <v>1575</v>
       </c>
       <c r="D456" t="s">
-        <v>1574</v>
+        <v>7</v>
       </c>
       <c r="E456" t="s">
         <v>7</v>
@@ -22462,16 +22447,16 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="B457" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C457" t="s">
-        <v>7</v>
+        <v>1576</v>
       </c>
       <c r="D457" t="s">
-        <v>1575</v>
+        <v>7</v>
       </c>
       <c r="E457" t="s">
         <v>7</v>
@@ -22479,84 +22464,84 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="B458" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C458" t="s">
-        <v>1576</v>
+        <v>7</v>
       </c>
       <c r="D458" t="s">
-        <v>7</v>
+        <v>1577</v>
       </c>
       <c r="E458" t="s">
-        <v>7</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>52</v>
+        <v>906</v>
       </c>
       <c r="B459" t="s">
         <v>126</v>
       </c>
       <c r="C459" t="s">
-        <v>1577</v>
+        <v>7</v>
       </c>
       <c r="D459" t="s">
         <v>7</v>
       </c>
       <c r="E459" t="s">
-        <v>7</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="B460" t="s">
         <v>126</v>
       </c>
       <c r="C460" t="s">
-        <v>7</v>
+        <v>1580</v>
       </c>
       <c r="D460" t="s">
-        <v>1578</v>
+        <v>7</v>
       </c>
       <c r="E460" t="s">
-        <v>1579</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>665</v>
+        <v>910</v>
       </c>
       <c r="B461" t="s">
         <v>61</v>
       </c>
       <c r="C461" t="s">
-        <v>1580</v>
+        <v>7</v>
       </c>
       <c r="D461" t="s">
         <v>7</v>
       </c>
       <c r="E461" t="s">
-        <v>7</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>430</v>
+        <v>808</v>
       </c>
       <c r="B462" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C462" t="s">
-        <v>1581</v>
+        <v>7</v>
       </c>
       <c r="D462" t="s">
-        <v>7</v>
+        <v>1582</v>
       </c>
       <c r="E462" t="s">
         <v>7</v>
@@ -22564,24 +22549,24 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>903</v>
+        <v>597</v>
       </c>
       <c r="B463" t="s">
         <v>126</v>
       </c>
       <c r="C463" t="s">
-        <v>7</v>
+        <v>1583</v>
       </c>
       <c r="D463" t="s">
-        <v>1582</v>
+        <v>7</v>
       </c>
       <c r="E463" t="s">
-        <v>1583</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B464" t="s">
         <v>126</v>
@@ -22590,58 +22575,58 @@
         <v>7</v>
       </c>
       <c r="D464" t="s">
-        <v>7</v>
+        <v>1584</v>
       </c>
       <c r="E464" t="s">
-        <v>1584</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>908</v>
+        <v>539</v>
       </c>
       <c r="B465" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" t="s">
         <v>1585</v>
-      </c>
-      <c r="D465" t="s">
-        <v>7</v>
-      </c>
-      <c r="E465" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="B466" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C466" t="s">
-        <v>7</v>
+        <v>1586</v>
       </c>
       <c r="D466" t="s">
         <v>7</v>
       </c>
       <c r="E466" t="s">
-        <v>1586</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>808</v>
+        <v>853</v>
       </c>
       <c r="B467" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C467" t="s">
-        <v>7</v>
+        <v>1587</v>
       </c>
       <c r="D467" t="s">
-        <v>1587</v>
+        <v>7</v>
       </c>
       <c r="E467" t="s">
         <v>7</v>
@@ -22649,16 +22634,16 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>597</v>
+        <v>149</v>
       </c>
       <c r="B468" t="s">
         <v>126</v>
       </c>
       <c r="C468" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" t="s">
         <v>1588</v>
-      </c>
-      <c r="D468" t="s">
-        <v>7</v>
       </c>
       <c r="E468" t="s">
         <v>7</v>
@@ -22666,7 +22651,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>914</v>
+        <v>262</v>
       </c>
       <c r="B469" t="s">
         <v>126</v>
@@ -22675,18 +22660,18 @@
         <v>7</v>
       </c>
       <c r="D469" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" t="s">
         <v>1589</v>
-      </c>
-      <c r="E469" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>539</v>
+        <v>132</v>
       </c>
       <c r="B470" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C470" t="s">
         <v>7</v>
@@ -22700,16 +22685,16 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B471" t="s">
         <v>126</v>
       </c>
       <c r="C471" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" t="s">
         <v>1591</v>
-      </c>
-      <c r="D471" t="s">
-        <v>7</v>
       </c>
       <c r="E471" t="s">
         <v>7</v>
@@ -22717,33 +22702,33 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>853</v>
+        <v>479</v>
       </c>
       <c r="B472" t="s">
         <v>126</v>
       </c>
       <c r="C472" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" t="s">
         <v>1592</v>
-      </c>
-      <c r="D472" t="s">
-        <v>7</v>
-      </c>
-      <c r="E472" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>149</v>
+        <v>481</v>
       </c>
       <c r="B473" t="s">
         <v>126</v>
       </c>
       <c r="C473" t="s">
-        <v>7</v>
+        <v>1593</v>
       </c>
       <c r="D473" t="s">
-        <v>1593</v>
+        <v>7</v>
       </c>
       <c r="E473" t="s">
         <v>7</v>
@@ -22751,7 +22736,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>262</v>
+        <v>927</v>
       </c>
       <c r="B474" t="s">
         <v>126</v>
@@ -22760,15 +22745,15 @@
         <v>7</v>
       </c>
       <c r="D474" t="s">
-        <v>7</v>
+        <v>1594</v>
       </c>
       <c r="E474" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B475" t="s">
         <v>126</v>
@@ -22780,21 +22765,21 @@
         <v>7</v>
       </c>
       <c r="E475" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="B476" t="s">
         <v>126</v>
       </c>
       <c r="C476" t="s">
-        <v>7</v>
+        <v>1597</v>
       </c>
       <c r="D476" t="s">
-        <v>1596</v>
+        <v>7</v>
       </c>
       <c r="E476" t="s">
         <v>7</v>
@@ -22802,58 +22787,58 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>479</v>
+        <v>933</v>
       </c>
       <c r="B477" t="s">
         <v>126</v>
       </c>
       <c r="C477" t="s">
-        <v>7</v>
+        <v>1598</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
       </c>
       <c r="E477" t="s">
-        <v>1597</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>481</v>
+        <v>935</v>
       </c>
       <c r="B478" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C478" t="s">
-        <v>1598</v>
+        <v>7</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
       </c>
       <c r="E478" t="s">
-        <v>7</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>927</v>
+        <v>468</v>
       </c>
       <c r="B479" t="s">
         <v>126</v>
       </c>
       <c r="C479" t="s">
-        <v>7</v>
+        <v>1600</v>
       </c>
       <c r="D479" t="s">
-        <v>1599</v>
+        <v>7</v>
       </c>
       <c r="E479" t="s">
-        <v>1600</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>92</v>
+        <v>819</v>
       </c>
       <c r="B480" t="s">
         <v>126</v>
@@ -22870,16 +22855,16 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="B481" t="s">
         <v>126</v>
       </c>
       <c r="C481" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481" t="s">
         <v>1602</v>
-      </c>
-      <c r="D481" t="s">
-        <v>7</v>
       </c>
       <c r="E481" t="s">
         <v>7</v>
@@ -22887,75 +22872,75 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="B482" t="s">
         <v>126</v>
       </c>
       <c r="C482" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+      <c r="E482" t="s">
         <v>1603</v>
-      </c>
-      <c r="D482" t="s">
-        <v>7</v>
-      </c>
-      <c r="E482" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B483" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C483" t="s">
-        <v>7</v>
+        <v>1604</v>
       </c>
       <c r="D483" t="s">
         <v>7</v>
       </c>
       <c r="E483" t="s">
-        <v>1604</v>
+        <v>7</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>468</v>
+        <v>945</v>
       </c>
       <c r="B484" t="s">
         <v>126</v>
       </c>
       <c r="C484" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" t="s">
+        <v>7</v>
+      </c>
+      <c r="E484" t="s">
         <v>1605</v>
-      </c>
-      <c r="D484" t="s">
-        <v>7</v>
-      </c>
-      <c r="E484" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>819</v>
+        <v>204</v>
       </c>
       <c r="B485" t="s">
         <v>126</v>
       </c>
       <c r="C485" t="s">
-        <v>7</v>
+        <v>1606</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
       </c>
       <c r="E485" t="s">
-        <v>1606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B486" t="s">
         <v>126</v>
@@ -22972,7 +22957,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>941</v>
+        <v>275</v>
       </c>
       <c r="B487" t="s">
         <v>126</v>
@@ -22989,24 +22974,24 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>943</v>
+        <v>422</v>
       </c>
       <c r="B488" t="s">
         <v>126</v>
       </c>
       <c r="C488" t="s">
+        <v>7</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+      <c r="E488" t="s">
         <v>1609</v>
-      </c>
-      <c r="D488" t="s">
-        <v>7</v>
-      </c>
-      <c r="E488" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>945</v>
+        <v>335</v>
       </c>
       <c r="B489" t="s">
         <v>126</v>
@@ -23023,7 +23008,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>204</v>
+        <v>953</v>
       </c>
       <c r="B490" t="s">
         <v>126</v>
@@ -23040,7 +23025,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>948</v>
+        <v>5</v>
       </c>
       <c r="B491" t="s">
         <v>126</v>
@@ -23057,7 +23042,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>275</v>
+        <v>956</v>
       </c>
       <c r="B492" t="s">
         <v>126</v>
@@ -23074,67 +23059,67 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>422</v>
+        <v>25</v>
       </c>
       <c r="B493" t="s">
         <v>126</v>
       </c>
       <c r="C493" t="s">
-        <v>7</v>
+        <v>1614</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
       </c>
       <c r="E493" t="s">
-        <v>1614</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>335</v>
+        <v>888</v>
       </c>
       <c r="B494" t="s">
         <v>126</v>
       </c>
       <c r="C494" t="s">
-        <v>7</v>
+        <v>1615</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
       </c>
       <c r="E494" t="s">
-        <v>1615</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="B495" t="s">
         <v>126</v>
       </c>
       <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" t="s">
         <v>1616</v>
-      </c>
-      <c r="D495" t="s">
-        <v>7</v>
-      </c>
-      <c r="E495" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>5</v>
+        <v>474</v>
       </c>
       <c r="B496" t="s">
         <v>126</v>
       </c>
       <c r="C496" t="s">
-        <v>7</v>
+        <v>1617</v>
       </c>
       <c r="D496" t="s">
-        <v>1617</v>
+        <v>7</v>
       </c>
       <c r="E496" t="s">
         <v>7</v>
@@ -23142,33 +23127,33 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="B497" t="s">
         <v>126</v>
       </c>
       <c r="C497" t="s">
-        <v>7</v>
+        <v>1618</v>
       </c>
       <c r="D497" t="s">
-        <v>7</v>
+        <v>1619</v>
       </c>
       <c r="E497" t="s">
-        <v>1618</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>25</v>
+        <v>966</v>
       </c>
       <c r="B498" t="s">
         <v>126</v>
       </c>
       <c r="C498" t="s">
-        <v>1619</v>
+        <v>7</v>
       </c>
       <c r="D498" t="s">
-        <v>7</v>
+        <v>1620</v>
       </c>
       <c r="E498" t="s">
         <v>7</v>
@@ -23176,16 +23161,16 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="B499" t="s">
         <v>126</v>
       </c>
       <c r="C499" t="s">
-        <v>1620</v>
+        <v>7</v>
       </c>
       <c r="D499" t="s">
-        <v>7</v>
+        <v>1621</v>
       </c>
       <c r="E499" t="s">
         <v>7</v>
@@ -23193,7 +23178,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B500" t="s">
         <v>126</v>
@@ -23202,41 +23187,41 @@
         <v>7</v>
       </c>
       <c r="D500" t="s">
-        <v>7</v>
+        <v>1622</v>
       </c>
       <c r="E500" t="s">
-        <v>1621</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>474</v>
+        <v>972</v>
       </c>
       <c r="B501" t="s">
         <v>126</v>
       </c>
       <c r="C501" t="s">
-        <v>1622</v>
+        <v>7</v>
       </c>
       <c r="D501" t="s">
         <v>7</v>
       </c>
       <c r="E501" t="s">
-        <v>7</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>963</v>
+        <v>434</v>
       </c>
       <c r="B502" t="s">
         <v>126</v>
       </c>
       <c r="C502" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D502" t="s">
-        <v>1624</v>
+        <v>7</v>
       </c>
       <c r="E502" t="s">
         <v>7</v>
@@ -23244,7 +23229,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="B503" t="s">
         <v>126</v>
@@ -23253,24 +23238,24 @@
         <v>7</v>
       </c>
       <c r="D503" t="s">
+        <v>7</v>
+      </c>
+      <c r="E503" t="s">
         <v>1625</v>
-      </c>
-      <c r="E503" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="B504" t="s">
         <v>126</v>
       </c>
       <c r="C504" t="s">
-        <v>7</v>
+        <v>1626</v>
       </c>
       <c r="D504" t="s">
-        <v>1626</v>
+        <v>7</v>
       </c>
       <c r="E504" t="s">
         <v>7</v>
@@ -23278,16 +23263,16 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="B505" t="s">
         <v>126</v>
       </c>
       <c r="C505" t="s">
-        <v>7</v>
+        <v>1627</v>
       </c>
       <c r="D505" t="s">
-        <v>1627</v>
+        <v>7</v>
       </c>
       <c r="E505" t="s">
         <v>7</v>
@@ -23295,7 +23280,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>972</v>
+        <v>472</v>
       </c>
       <c r="B506" t="s">
         <v>126</v>
@@ -23304,15 +23289,15 @@
         <v>7</v>
       </c>
       <c r="D506" t="s">
-        <v>7</v>
+        <v>1628</v>
       </c>
       <c r="E506" t="s">
-        <v>1628</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>434</v>
+        <v>982</v>
       </c>
       <c r="B507" t="s">
         <v>126</v>
@@ -23329,7 +23314,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>975</v>
+        <v>408</v>
       </c>
       <c r="B508" t="s">
         <v>126</v>
@@ -23346,16 +23331,16 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="B509" t="s">
         <v>126</v>
       </c>
       <c r="C509" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509" t="s">
         <v>1631</v>
-      </c>
-      <c r="D509" t="s">
-        <v>7</v>
       </c>
       <c r="E509" t="s">
         <v>7</v>
@@ -23363,7 +23348,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B510" t="s">
         <v>126</v>
@@ -23375,12 +23360,12 @@
         <v>7</v>
       </c>
       <c r="E510" t="s">
-        <v>7</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="B511" t="s">
         <v>126</v>
@@ -23389,7 +23374,7 @@
         <v>7</v>
       </c>
       <c r="D511" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="E511" t="s">
         <v>7</v>
@@ -23397,24 +23382,24 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>982</v>
+        <v>483</v>
       </c>
       <c r="B512" t="s">
         <v>126</v>
       </c>
       <c r="C512" t="s">
-        <v>1634</v>
+        <v>7</v>
       </c>
       <c r="D512" t="s">
         <v>7</v>
       </c>
       <c r="E512" t="s">
-        <v>7</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B513" t="s">
         <v>126</v>
@@ -23426,12 +23411,12 @@
         <v>7</v>
       </c>
       <c r="E513" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="B514" t="s">
         <v>126</v>
@@ -23440,21 +23425,21 @@
         <v>7</v>
       </c>
       <c r="D514" t="s">
-        <v>1636</v>
+        <v>7</v>
       </c>
       <c r="E514" t="s">
-        <v>7</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="B515" t="s">
         <v>126</v>
       </c>
       <c r="C515" t="s">
-        <v>1637</v>
+        <v>7</v>
       </c>
       <c r="D515" t="s">
         <v>7</v>
@@ -23465,7 +23450,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>142</v>
+        <v>997</v>
       </c>
       <c r="B516" t="s">
         <v>126</v>
@@ -23482,7 +23467,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="B517" t="s">
         <v>126</v>
@@ -23499,7 +23484,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>390</v>
+        <v>497</v>
       </c>
       <c r="B518" t="s">
         <v>126</v>
@@ -23508,15 +23493,15 @@
         <v>7</v>
       </c>
       <c r="D518" t="s">
-        <v>7</v>
+        <v>1641</v>
       </c>
       <c r="E518" t="s">
-        <v>1641</v>
+        <v>7</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="B519" t="s">
         <v>126</v>
@@ -23533,24 +23518,24 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>995</v>
+        <v>400</v>
       </c>
       <c r="B520" t="s">
         <v>126</v>
       </c>
       <c r="C520" t="s">
-        <v>7</v>
+        <v>1643</v>
       </c>
       <c r="D520" t="s">
         <v>7</v>
       </c>
       <c r="E520" t="s">
-        <v>1643</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>997</v>
+        <v>231</v>
       </c>
       <c r="B521" t="s">
         <v>126</v>
@@ -23567,7 +23552,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>19</v>
+        <v>683</v>
       </c>
       <c r="B522" t="s">
         <v>126</v>
@@ -23576,24 +23561,24 @@
         <v>7</v>
       </c>
       <c r="D522" t="s">
-        <v>7</v>
+        <v>1645</v>
       </c>
       <c r="E522" t="s">
-        <v>1645</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>497</v>
+        <v>33</v>
       </c>
       <c r="B523" t="s">
         <v>126</v>
       </c>
       <c r="C523" t="s">
-        <v>7</v>
+        <v>1646</v>
       </c>
       <c r="D523" t="s">
-        <v>1646</v>
+        <v>7</v>
       </c>
       <c r="E523" t="s">
         <v>7</v>
@@ -23601,7 +23586,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1001</v>
+        <v>702</v>
       </c>
       <c r="B524" t="s">
         <v>126</v>
@@ -23610,24 +23595,24 @@
         <v>7</v>
       </c>
       <c r="D524" t="s">
-        <v>7</v>
+        <v>1647</v>
       </c>
       <c r="E524" t="s">
-        <v>1647</v>
+        <v>7</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>400</v>
+        <v>1008</v>
       </c>
       <c r="B525" t="s">
         <v>126</v>
       </c>
       <c r="C525" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525" t="s">
         <v>1648</v>
-      </c>
-      <c r="D525" t="s">
-        <v>7</v>
       </c>
       <c r="E525" t="s">
         <v>7</v>
@@ -23635,16 +23620,16 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>231</v>
+        <v>1010</v>
       </c>
       <c r="B526" t="s">
         <v>126</v>
       </c>
       <c r="C526" t="s">
-        <v>7</v>
+        <v>1649</v>
       </c>
       <c r="D526" t="s">
-        <v>1649</v>
+        <v>7</v>
       </c>
       <c r="E526" t="s">
         <v>7</v>
@@ -23652,7 +23637,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>683</v>
+        <v>1012</v>
       </c>
       <c r="B527" t="s">
         <v>126</v>
@@ -23661,24 +23646,24 @@
         <v>7</v>
       </c>
       <c r="D527" t="s">
+        <v>7</v>
+      </c>
+      <c r="E527" t="s">
         <v>1650</v>
-      </c>
-      <c r="E527" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>33</v>
+        <v>477</v>
       </c>
       <c r="B528" t="s">
         <v>126</v>
       </c>
       <c r="C528" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528" t="s">
         <v>1651</v>
-      </c>
-      <c r="D528" t="s">
-        <v>7</v>
       </c>
       <c r="E528" t="s">
         <v>7</v>
@@ -23686,16 +23671,16 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>702</v>
+        <v>1015</v>
       </c>
       <c r="B529" t="s">
         <v>126</v>
       </c>
       <c r="C529" t="s">
-        <v>7</v>
+        <v>1652</v>
       </c>
       <c r="D529" t="s">
-        <v>1652</v>
+        <v>7</v>
       </c>
       <c r="E529" t="s">
         <v>7</v>
@@ -23703,7 +23688,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1008</v>
+        <v>620</v>
       </c>
       <c r="B530" t="s">
         <v>126</v>
@@ -23720,24 +23705,24 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B531" t="s">
         <v>126</v>
       </c>
       <c r="C531" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+      <c r="E531" t="s">
         <v>1654</v>
-      </c>
-      <c r="D531" t="s">
-        <v>7</v>
-      </c>
-      <c r="E531" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="B532" t="s">
         <v>126</v>
@@ -23746,15 +23731,15 @@
         <v>7</v>
       </c>
       <c r="D532" t="s">
-        <v>7</v>
+        <v>1655</v>
       </c>
       <c r="E532" t="s">
-        <v>1655</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="B533" t="s">
         <v>126</v>
@@ -23763,15 +23748,15 @@
         <v>7</v>
       </c>
       <c r="D533" t="s">
+        <v>7</v>
+      </c>
+      <c r="E533" t="s">
         <v>1656</v>
-      </c>
-      <c r="E533" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="B534" t="s">
         <v>126</v>
@@ -23788,16 +23773,16 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>620</v>
+        <v>1025</v>
       </c>
       <c r="B535" t="s">
         <v>126</v>
       </c>
       <c r="C535" t="s">
-        <v>7</v>
+        <v>1658</v>
       </c>
       <c r="D535" t="s">
-        <v>1658</v>
+        <v>7</v>
       </c>
       <c r="E535" t="s">
         <v>7</v>
@@ -23805,7 +23790,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="B536" t="s">
         <v>126</v>
@@ -23822,7 +23807,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="B537" t="s">
         <v>126</v>
@@ -23839,33 +23824,33 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>440</v>
+        <v>663</v>
       </c>
       <c r="B538" t="s">
         <v>126</v>
       </c>
       <c r="C538" t="s">
-        <v>7</v>
+        <v>1661</v>
       </c>
       <c r="D538" t="s">
         <v>7</v>
       </c>
       <c r="E538" t="s">
-        <v>1661</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1023</v>
+        <v>773</v>
       </c>
       <c r="B539" t="s">
         <v>126</v>
       </c>
       <c r="C539" t="s">
+        <v>7</v>
+      </c>
+      <c r="D539" t="s">
         <v>1662</v>
-      </c>
-      <c r="D539" t="s">
-        <v>7</v>
       </c>
       <c r="E539" t="s">
         <v>7</v>
@@ -23873,24 +23858,24 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1025</v>
+        <v>844</v>
       </c>
       <c r="B540" t="s">
         <v>126</v>
       </c>
       <c r="C540" t="s">
+        <v>7</v>
+      </c>
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+      <c r="E540" t="s">
         <v>1663</v>
-      </c>
-      <c r="D540" t="s">
-        <v>7</v>
-      </c>
-      <c r="E540" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1027</v>
+        <v>659</v>
       </c>
       <c r="B541" t="s">
         <v>126</v>
@@ -23899,15 +23884,15 @@
         <v>7</v>
       </c>
       <c r="D541" t="s">
-        <v>7</v>
+        <v>1664</v>
       </c>
       <c r="E541" t="s">
-        <v>1664</v>
+        <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B542" t="s">
         <v>126</v>
@@ -23916,24 +23901,24 @@
         <v>7</v>
       </c>
       <c r="D542" t="s">
+        <v>7</v>
+      </c>
+      <c r="E542" t="s">
         <v>1665</v>
-      </c>
-      <c r="E542" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>663</v>
+        <v>1037</v>
       </c>
       <c r="B543" t="s">
         <v>126</v>
       </c>
       <c r="C543" t="s">
+        <v>7</v>
+      </c>
+      <c r="D543" t="s">
         <v>1666</v>
-      </c>
-      <c r="D543" t="s">
-        <v>7</v>
       </c>
       <c r="E543" t="s">
         <v>7</v>
@@ -23941,7 +23926,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>773</v>
+        <v>1039</v>
       </c>
       <c r="B544" t="s">
         <v>126</v>
@@ -23950,41 +23935,41 @@
         <v>7</v>
       </c>
       <c r="D544" t="s">
+        <v>7</v>
+      </c>
+      <c r="E544" t="s">
         <v>1667</v>
-      </c>
-      <c r="E544" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>844</v>
+        <v>1020</v>
       </c>
       <c r="B545" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C545" t="s">
-        <v>7</v>
+        <v>1668</v>
       </c>
       <c r="D545" t="s">
         <v>7</v>
       </c>
       <c r="E545" t="s">
-        <v>1668</v>
+        <v>7</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>659</v>
+        <v>1669</v>
       </c>
       <c r="B546" t="s">
         <v>126</v>
       </c>
       <c r="C546" t="s">
-        <v>7</v>
+        <v>1670</v>
       </c>
       <c r="D546" t="s">
-        <v>1669</v>
+        <v>7</v>
       </c>
       <c r="E546" t="s">
         <v>7</v>
@@ -23992,24 +23977,24 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1035</v>
+        <v>1671</v>
       </c>
       <c r="B547" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C547" t="s">
-        <v>7</v>
+        <v>1672</v>
       </c>
       <c r="D547" t="s">
         <v>7</v>
       </c>
       <c r="E547" t="s">
-        <v>1670</v>
+        <v>7</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1037</v>
+        <v>1673</v>
       </c>
       <c r="B548" t="s">
         <v>126</v>
@@ -24018,15 +24003,15 @@
         <v>7</v>
       </c>
       <c r="D548" t="s">
-        <v>1671</v>
+        <v>7</v>
       </c>
       <c r="E548" t="s">
-        <v>7</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1039</v>
+        <v>286</v>
       </c>
       <c r="B549" t="s">
         <v>126</v>
@@ -24038,92 +24023,7 @@
         <v>7</v>
       </c>
       <c r="E549" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B550" t="s">
-        <v>61</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D550" t="s">
-        <v>7</v>
-      </c>
-      <c r="E550" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B551" t="s">
-        <v>126</v>
-      </c>
-      <c r="C551" t="s">
         <v>1675</v>
-      </c>
-      <c r="D551" t="s">
-        <v>7</v>
-      </c>
-      <c r="E551" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B552" t="s">
-        <v>61</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D552" t="s">
-        <v>7</v>
-      </c>
-      <c r="E552" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B553" t="s">
-        <v>126</v>
-      </c>
-      <c r="C553" t="s">
-        <v>7</v>
-      </c>
-      <c r="D553" t="s">
-        <v>7</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
-        <v>286</v>
-      </c>
-      <c r="B554" t="s">
-        <v>126</v>
-      </c>
-      <c r="C554" t="s">
-        <v>7</v>
-      </c>
-      <c r="D554" t="s">
-        <v>7</v>
-      </c>
-      <c r="E554" t="s">
-        <v>1680</v>
       </c>
     </row>
   </sheetData>
